--- a/lb4/таблиці.xlsx
+++ b/lb4/таблиці.xlsx
@@ -367,13 +367,12 @@
             </c:ext>
           </c:extLst>
         </c:ser>
-        <c:dLbls/>
         <c:marker val="1"/>
-        <c:axId val="98953088"/>
-        <c:axId val="99016704"/>
+        <c:axId val="85737856"/>
+        <c:axId val="85739392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98953088"/>
+        <c:axId val="85737856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -414,14 +413,14 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99016704"/>
+        <c:crossAx val="85739392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99016704"/>
+        <c:axId val="85739392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -470,7 +469,7 @@
             <a:endParaRPr lang="uk-UA"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98953088"/>
+        <c:crossAx val="85737856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -519,323 +518,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="uk-UA"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Аркуш1!$C$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Iout</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>Аркуш1!$A$16:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Аркуш1!$C$27:$C$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.27402985074626862</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.34477611940298508</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.46268656716417911</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55223880597014929</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.65671641791044777</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.74626865671641796</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.84328358208955223</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88507462686567162</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8284-402A-A08A-0A5577B7C5FA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls/>
-        <c:marker val="1"/>
-        <c:axId val="91624960"/>
-        <c:axId val="91626496"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="91624960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="91626496"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="91626496"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="91624960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -861,7 +544,7 @@
         <xdr:cNvPr id="2" name="Діаграма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47853AD6-53FB-4652-940B-AA716D9C284F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47853AD6-53FB-4652-940B-AA716D9C284F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -874,44 +557,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>5715</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Діаграма 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{146DFC7A-3075-4DCE-9054-F312B1EB0A28}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1209,7 +854,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1219,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1370,7 +1015,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>670</v>
+        <v>10000</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
@@ -1537,11 +1182,11 @@
       </c>
       <c r="C27" s="1">
         <f>C16/$D$12</f>
-        <v>0.27402985074626862</v>
+        <v>1.8359999999999998E-2</v>
       </c>
       <c r="D27" s="1">
         <f>C27/B27</f>
-        <v>82.208955223880579</v>
+        <v>5.5079999999999991</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1554,11 +1199,11 @@
       </c>
       <c r="C28" s="1">
         <f t="shared" ref="C28:C34" si="2">C17/$D$12</f>
-        <v>0.34477611940298508</v>
+        <v>2.3099999999999999E-2</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" ref="D28:D34" si="3">C28/B28</f>
-        <v>68.955223880597018</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1571,11 +1216,11 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" si="2"/>
-        <v>0.46268656716417911</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="3"/>
-        <v>69.402985074626855</v>
+        <v>4.6499999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1588,11 +1233,11 @@
       </c>
       <c r="C30" s="1">
         <f t="shared" si="2"/>
-        <v>0.55223880597014929</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="3"/>
-        <v>66.268656716417922</v>
+        <v>4.4399999999999995</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1605,11 +1250,11 @@
       </c>
       <c r="C31" s="1">
         <f t="shared" si="2"/>
-        <v>0.65671641791044777</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="3"/>
-        <v>65.671641791044777</v>
+        <v>4.3999999999999995</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1622,11 +1267,11 @@
       </c>
       <c r="C32" s="1">
         <f t="shared" si="2"/>
-        <v>0.74626865671641796</v>
+        <v>0.05</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="3"/>
-        <v>63.965884861407254</v>
+        <v>4.2857142857142856</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1639,11 +1284,11 @@
       </c>
       <c r="C33" s="1">
         <f t="shared" si="2"/>
-        <v>0.84328358208955223</v>
+        <v>5.6500000000000002E-2</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="3"/>
-        <v>63.24626865671641</v>
+        <v>4.2374999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1656,11 +1301,11 @@
       </c>
       <c r="C34" s="1">
         <f t="shared" si="2"/>
-        <v>0.88507462686567162</v>
+        <v>5.9299999999999999E-2</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="3"/>
-        <v>62.475856014047409</v>
+        <v>4.1858823529411762</v>
       </c>
     </row>
   </sheetData>

--- a/lb4/таблиці.xlsx
+++ b/lb4/таблиці.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>І колектора</t>
   </si>
@@ -66,12 +66,6 @@
     <t>mV</t>
   </si>
   <si>
-    <t>Iin</t>
-  </si>
-  <si>
-    <t>Iout</t>
-  </si>
-  <si>
     <t>Ki</t>
   </si>
   <si>
@@ -97,6 +91,18 @@
   </si>
   <si>
     <t>ki</t>
+  </si>
+  <si>
+    <t>Rнав</t>
+  </si>
+  <si>
+    <t>Ом</t>
+  </si>
+  <si>
+    <t>Iin, mA</t>
+  </si>
+  <si>
+    <t>Iout, mA</t>
   </si>
 </sst>
 </file>
@@ -207,362 +213,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="uk-UA"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="uk-UA"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Аркуш1!$C$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Uout</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="12700">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-          </c:trendline>
-          <c:cat>
-            <c:numRef>
-              <c:f>Аркуш1!$A$16:$A$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Аркуш1!$C$16:$C$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>183.6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>500</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>565</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>593</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E9F4-4B96-83E4-698D66163D24}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="85737856"/>
-        <c:axId val="85739392"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="85737856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="85739392"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="85739392"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="uk-UA"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="85737856"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="uk-UA"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>450574</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>27333</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>317224</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>65433</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Діаграма 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47853AD6-53FB-4652-940B-AA716D9C284F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -864,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -901,14 +551,14 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <f>25*10^(-3)</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K2">
         <f>(680*10000)/(680+10000)</f>
@@ -928,14 +578,14 @@
     </row>
     <row r="5" spans="1:11">
       <c r="G5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <f>C1/H2</f>
         <v>7.279999999999999E-2</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5">
         <f>1/12000+1/2000+1/H8</f>
@@ -956,7 +606,7 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H6">
         <f>H5*K2</f>
@@ -975,14 +625,14 @@
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7">
         <f>H6*(K7/10000)</f>
         <v>3.8139380080987615</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K7">
         <f>1/K5</f>
@@ -992,7 +642,7 @@
     <row r="8" spans="1:11">
       <c r="A8" s="5"/>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <f>C3/H5</f>
@@ -1015,10 +665,21 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>10000</v>
+        <v>670</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>10000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1163,13 +824,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1177,16 +838,16 @@
         <v>1</v>
       </c>
       <c r="B27" s="1">
-        <f>B16/$D$11</f>
-        <v>3.3333333333333335E-3</v>
+        <f>B16/$K$7</f>
+        <v>4.8613333333333338E-3</v>
       </c>
       <c r="C27" s="1">
-        <f>C16/$D$12</f>
+        <f>C16/$D$13</f>
         <v>1.8359999999999998E-2</v>
       </c>
       <c r="D27" s="1">
         <f>C27/B27</f>
-        <v>5.5079999999999991</v>
+        <v>3.7767416346681286</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1194,16 +855,16 @@
         <v>2</v>
       </c>
       <c r="B28" s="1">
-        <f t="shared" ref="B28:B34" si="1">B17/$D$11</f>
-        <v>5.0000000000000001E-3</v>
+        <f t="shared" ref="B28:B34" si="1">B17/$K$7</f>
+        <v>7.2920000000000007E-3</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" ref="C28:C34" si="2">C17/$D$12</f>
+        <f t="shared" ref="C28:C34" si="2">C17/$D$13</f>
         <v>2.3099999999999999E-2</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" ref="D28:D34" si="3">C28/B28</f>
-        <v>4.62</v>
+        <v>3.1678551837630273</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1212,7 +873,7 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="1"/>
-        <v>6.6666666666666671E-3</v>
+        <v>9.7226666666666677E-3</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="2"/>
@@ -1220,7 +881,7 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="3"/>
-        <v>4.6499999999999995</v>
+        <v>3.1884256719692812</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1229,7 +890,7 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="1"/>
-        <v>8.3333333333333332E-3</v>
+        <v>1.2153333333333334E-2</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="2"/>
@@ -1237,7 +898,7 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="3"/>
-        <v>4.4399999999999995</v>
+        <v>3.0444322545255074</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1246,7 +907,7 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" si="1"/>
-        <v>0.01</v>
+        <v>1.4584000000000001E-2</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="2"/>
@@ -1254,7 +915,7 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="3"/>
-        <v>4.3999999999999995</v>
+        <v>3.0170049369171692</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1263,7 +924,7 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" si="1"/>
-        <v>1.1666666666666667E-2</v>
+        <v>1.7014666666666668E-2</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="2"/>
@@ -1271,7 +932,7 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="3"/>
-        <v>4.2857142857142856</v>
+        <v>2.9386411723219186</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1279,8 +940,8 @@
         <v>7</v>
       </c>
       <c r="B33" s="1">
-        <f>B22/$D$11</f>
-        <v>1.3333333333333334E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.9445333333333335E-2</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="2"/>
@@ -1288,7 +949,7 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="3"/>
-        <v>4.2374999999999998</v>
+        <v>2.9055814591332965</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1297,7 +958,7 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" si="1"/>
-        <v>1.4166666666666666E-2</v>
+        <v>2.0660666666666667E-2</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="2"/>
@@ -1305,7 +966,7 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="3"/>
-        <v>4.1858823529411762</v>
+        <v>2.8701881191313605</v>
       </c>
     </row>
   </sheetData>
@@ -1314,6 +975,5 @@
     <mergeCell ref="A6:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>